--- a/SDD-NHANES-EPI.xlsx
+++ b/SDD-NHANES-EPI.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Cirimele\Documents\GitHub\hadatac-nhanes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5C507-6BAB-4050-B9EE-BBD164FFF5D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="1815" yWindow="1620" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="344">
   <si>
     <t>Attribute</t>
   </si>
@@ -955,12 +961,114 @@
   </si>
   <si>
     <t>NHANES-EPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMQMILIZ </t>
+  </si>
+  <si>
+    <t>Served active duty in US Armed Forces</t>
+  </si>
+  <si>
+    <t>{Have you/Has SP} ever served on active duty in the U.S. Armed Forces, military Reserves, or National Guard? (Active duty does not include training for the Reserves or National Guard, but does include activation, for service in the U.S. or in a foreign country, in support of military or humanitarian operations.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMQADFC </t>
+  </si>
+  <si>
+    <t>Served in a foreign country</t>
+  </si>
+  <si>
+    <t>Did {you/SP} ever serve in a foreign country during a time of armed conflict or on a humanitarian or peace-keeping mission? (This would include National Guard or reserve or active duty monitoring or conducting peace keeping operations in Bosnia and Kosovo, in the Sinai between Egypt and Israel, or in response to the 2004 tsunami or Haiti in 2010.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIAPROXY </t>
+  </si>
+  <si>
+    <t>Proxy used in SP Interview?</t>
+  </si>
+  <si>
+    <t>Was a Proxy respondent used in conducting the Sample Person (SP) interview?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Both males and females 17 YEARS - 150 YEARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIAINTRP </t>
+  </si>
+  <si>
+    <t>Interpreter used in SP Interview?</t>
+  </si>
+  <si>
+    <t>Was an interpreter used to conduct the Sample Person (SP) interview?</t>
+  </si>
+  <si>
+    <t>Proxy used in Family Interview?</t>
+  </si>
+  <si>
+    <t>Was a Proxy respondent used in conducting the Family Interview?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIAINTRP </t>
+  </si>
+  <si>
+    <t>Interpreter used in Family Interview?</t>
+  </si>
+  <si>
+    <t>Was an interpreter used to conduct the Family interview?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIAPROXY </t>
+  </si>
+  <si>
+    <t>Proxy used in MEC Interview?</t>
+  </si>
+  <si>
+    <t>Was a Proxy respondent used in conducting the MEC CAPI Interview?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Both males and females 8 YEARS - 150 YEARS</t>
+  </si>
+  <si>
+    <t>Interpreter used in MEC Interview?</t>
+  </si>
+  <si>
+    <t>Was an interpreter used to conduct the MEC CAPI interview?</t>
+  </si>
+  <si>
+    <t>DMDHRAGZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMDHREDZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMDHRMAZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMDHSEDZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDMVPSU </t>
+  </si>
+  <si>
+    <t>Masked variance pseudo-PSU</t>
+  </si>
+  <si>
+    <t>Masked variance unit pseudo-PSU variable for variance estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDMVSTRA </t>
+  </si>
+  <si>
+    <t>Masked variance pseudo-stratum</t>
+  </si>
+  <si>
+    <t>Masked variance unit pseudo-stratum variable for variance estimation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1034,13 +1142,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 8" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1301,27 +1412,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1337,13 +1448,13 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1486,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1391,16 +1502,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B4" location="'Dictionary Mapping'!A1" display="'Dictionary Mapping'!A1"/>
-    <hyperlink ref="B5" location="Codebook!A1" display="Codebook!A1"/>
-    <hyperlink ref="B9" location="Timeline!A1" display="Timeline!A1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" location="'Dictionary Mapping'!A1" display="'Dictionary Mapping'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" location="Codebook!A1" display="Codebook!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" location="Timeline!A1" display="Timeline!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1412,24 +1523,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="43.625" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1479,7 +1590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1519,7 +1630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1539,7 +1650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1559,7 +1670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1582,7 +1693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1605,7 +1716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1625,7 +1736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1645,7 +1756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1665,7 +1776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1688,213 +1799,195 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>88</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>91</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>93</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>100</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>102</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -1903,504 +1996,663 @@
         <v>108</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>317</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>320</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>323</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>324</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>326</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>331</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>331</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="M30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
         <v>33</v>
       </c>
       <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" t="s">
+        <v>340</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C45" t="s">
+        <v>343</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
         <v>179</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" t="s">
         <v>34</v>
       </c>
-      <c r="J38" t="s">
-        <v>184</v>
-      </c>
-      <c r="K38" t="s">
-        <v>185</v>
-      </c>
-      <c r="M38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" t="s">
-        <v>188</v>
-      </c>
-      <c r="M40" t="s">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" t="s">
-        <v>189</v>
-      </c>
-      <c r="M41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="s">
-        <v>104</v>
-      </c>
-      <c r="J42" t="s">
-        <v>190</v>
-      </c>
-      <c r="M42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="s">
-        <v>149</v>
-      </c>
-      <c r="J43" t="s">
-        <v>191</v>
-      </c>
-      <c r="M43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="J44" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" t="s">
-        <v>184</v>
-      </c>
-      <c r="K45" t="s">
-        <v>193</v>
-      </c>
-      <c r="M45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" t="s">
-        <v>184</v>
-      </c>
-      <c r="K46" t="s">
-        <v>194</v>
-      </c>
-      <c r="M46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>141</v>
-      </c>
-      <c r="J47" t="s">
-        <v>184</v>
-      </c>
-      <c r="K47" t="s">
-        <v>195</v>
-      </c>
-      <c r="M47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="s">
-        <v>145</v>
       </c>
       <c r="J48" t="s">
         <v>184</v>
       </c>
       <c r="K48" t="s">
+        <v>185</v>
+      </c>
+      <c r="M48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s">
+        <v>188</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J51" t="s">
+        <v>189</v>
+      </c>
+      <c r="M51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" t="s">
+        <v>190</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J53" t="s">
+        <v>191</v>
+      </c>
+      <c r="M53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="J55" t="s">
+        <v>184</v>
+      </c>
+      <c r="K55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="J56" t="s">
+        <v>184</v>
+      </c>
+      <c r="K56" t="s">
+        <v>194</v>
+      </c>
+      <c r="M56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="J57" t="s">
+        <v>184</v>
+      </c>
+      <c r="K57" t="s">
+        <v>195</v>
+      </c>
+      <c r="M57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="J58" t="s">
+        <v>184</v>
+      </c>
+      <c r="K58" t="s">
         <v>196</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>130</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J59" t="s">
         <v>184</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L59" t="s">
         <v>197</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M59" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>133</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J60" t="s">
         <v>184</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L60" t="s">
         <v>197</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M60" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2410,22 +2662,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2439,7 +2691,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2702,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2461,7 +2713,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2472,7 +2724,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2483,7 +2735,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2494,7 +2746,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2505,7 +2757,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2516,7 +2768,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2527,7 +2779,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2538,7 +2790,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2549,7 +2801,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2560,7 +2812,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2571,7 +2823,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2582,7 +2834,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2593,7 +2845,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2604,7 +2856,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2615,7 +2867,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -2626,7 +2878,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -2637,7 +2889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2648,7 +2900,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2659,7 +2911,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2670,7 +2922,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2681,7 +2933,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2692,7 +2944,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -2703,7 +2955,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -2714,7 +2966,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2725,7 +2977,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2736,7 +2988,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2747,7 +2999,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2758,7 +3010,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2769,7 +3021,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2780,7 +3032,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2791,7 +3043,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2802,7 +3054,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2813,7 +3065,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2824,7 +3076,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2835,7 +3087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2846,7 +3098,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2857,7 +3109,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2868,7 +3120,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2879,7 +3131,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2890,7 +3142,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2901,7 +3153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2912,7 +3164,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -2923,7 +3175,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -2934,7 +3186,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -2945,7 +3197,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -2956,7 +3208,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -2967,7 +3219,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -2978,7 +3230,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -2989,7 +3241,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3000,7 +3252,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -3011,7 +3263,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -3022,7 +3274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -3033,7 +3285,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -3044,7 +3296,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3055,7 +3307,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -3066,7 +3318,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -3077,7 +3329,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -3088,7 +3340,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -3099,7 +3351,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -3110,7 +3362,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -3121,7 +3373,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -3132,7 +3384,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -3143,7 +3395,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -3154,7 +3406,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -3165,7 +3417,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -3176,7 +3428,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -3187,7 +3439,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -3198,7 +3450,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -3209,7 +3461,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -3220,7 +3472,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -3231,7 +3483,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -3242,7 +3494,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -3253,7 +3505,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -3264,7 +3516,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -3275,7 +3527,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -3286,7 +3538,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -3297,7 +3549,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -3308,7 +3560,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -3319,7 +3571,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3330,7 +3582,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -3341,7 +3593,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -3352,7 +3604,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -3363,7 +3615,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -3374,7 +3626,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -3385,7 +3637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3396,7 +3648,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -3407,7 +3659,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -3418,7 +3670,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -3429,7 +3681,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3440,7 +3692,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -3451,7 +3703,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -3462,7 +3714,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3473,7 +3725,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -3484,7 +3736,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3495,7 +3747,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3506,7 +3758,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3517,7 +3769,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -3528,7 +3780,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -3539,7 +3791,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -3550,7 +3802,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -3561,7 +3813,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -3572,7 +3824,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -3583,7 +3835,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -3594,7 +3846,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3605,7 +3857,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -3616,7 +3868,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -3627,7 +3879,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -3638,7 +3890,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3649,7 +3901,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3660,7 +3912,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3671,7 +3923,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -3682,7 +3934,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -3693,7 +3945,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -3704,7 +3956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>112</v>
       </c>
@@ -3715,7 +3967,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -3726,7 +3978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -3737,7 +3989,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -3748,7 +4000,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -3759,7 +4011,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -3770,7 +4022,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -3781,7 +4033,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>117</v>
       </c>
@@ -3792,7 +4044,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>118</v>
       </c>
@@ -3803,7 +4055,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>118</v>
       </c>
@@ -3814,7 +4066,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -3825,7 +4077,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -3836,7 +4088,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>121</v>
       </c>
@@ -3847,7 +4099,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -3858,7 +4110,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>122</v>
       </c>
@@ -3869,7 +4121,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -3880,7 +4132,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -3891,7 +4143,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>123</v>
       </c>
@@ -3902,7 +4154,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -3913,7 +4165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -3924,7 +4176,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -3935,7 +4187,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -3946,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -3957,7 +4209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>127</v>
       </c>
@@ -3968,7 +4220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>127</v>
       </c>
@@ -3979,7 +4231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -3990,7 +4242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -4001,7 +4253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>127</v>
       </c>
@@ -4012,7 +4264,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -4023,7 +4275,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>131</v>
       </c>
@@ -4034,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>131</v>
       </c>
@@ -4045,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>131</v>
       </c>
@@ -4056,7 +4308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>131</v>
       </c>
@@ -4067,7 +4319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>131</v>
       </c>
@@ -4078,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>131</v>
       </c>
@@ -4089,7 +4341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>131</v>
       </c>
@@ -4100,7 +4352,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>131</v>
       </c>
@@ -4111,7 +4363,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>134</v>
       </c>
@@ -4122,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>134</v>
       </c>
@@ -4133,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>134</v>
       </c>
@@ -4144,7 +4396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>134</v>
       </c>
@@ -4155,7 +4407,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>134</v>
       </c>
@@ -4166,7 +4418,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>138</v>
       </c>
@@ -4177,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>138</v>
       </c>
@@ -4188,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>138</v>
       </c>
@@ -4199,7 +4451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>138</v>
       </c>
@@ -4210,7 +4462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>138</v>
       </c>
@@ -4221,7 +4473,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>138</v>
       </c>
@@ -4232,7 +4484,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>142</v>
       </c>
@@ -4243,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>142</v>
       </c>
@@ -4254,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>142</v>
       </c>
@@ -4265,7 +4517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>142</v>
       </c>
@@ -4276,7 +4528,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>142</v>
       </c>
@@ -4287,7 +4539,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>146</v>
       </c>
@@ -4298,7 +4550,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>146</v>
       </c>
@@ -4309,7 +4561,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>146</v>
       </c>
@@ -4320,7 +4572,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>150</v>
       </c>
@@ -4331,7 +4583,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>150</v>
       </c>
@@ -4342,7 +4594,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>150</v>
       </c>
@@ -4353,7 +4605,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>154</v>
       </c>
@@ -4364,7 +4616,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>154</v>
       </c>
@@ -4375,7 +4627,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>154</v>
       </c>
@@ -4386,7 +4638,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>154</v>
       </c>
@@ -4397,7 +4649,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>154</v>
       </c>
@@ -4408,7 +4660,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>157</v>
       </c>
@@ -4419,7 +4671,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>157</v>
       </c>
@@ -4430,7 +4682,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>157</v>
       </c>
@@ -4441,7 +4693,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>157</v>
       </c>
@@ -4452,7 +4704,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>157</v>
       </c>
@@ -4463,7 +4715,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>157</v>
       </c>
@@ -4474,7 +4726,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>157</v>
       </c>
@@ -4485,7 +4737,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>157</v>
       </c>
@@ -4496,7 +4748,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>160</v>
       </c>
@@ -4507,7 +4759,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>160</v>
       </c>
@@ -4518,7 +4770,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>160</v>
       </c>
@@ -4529,7 +4781,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>160</v>
       </c>
@@ -4540,7 +4792,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>160</v>
       </c>
@@ -4551,7 +4803,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>160</v>
       </c>
@@ -4562,7 +4814,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>160</v>
       </c>
@@ -4573,7 +4825,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>160</v>
       </c>
@@ -4584,7 +4836,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>160</v>
       </c>
@@ -4595,7 +4847,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>163</v>
       </c>
@@ -4606,7 +4858,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>163</v>
       </c>
@@ -4617,7 +4869,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>163</v>
       </c>
@@ -4628,7 +4880,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>163</v>
       </c>
@@ -4639,7 +4891,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>163</v>
       </c>
@@ -4650,7 +4902,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>163</v>
       </c>
@@ -4661,7 +4913,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>163</v>
       </c>
@@ -4672,7 +4924,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>163</v>
       </c>
@@ -4683,7 +4935,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>167</v>
       </c>
@@ -4694,7 +4946,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>167</v>
       </c>
@@ -4705,7 +4957,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>171</v>
       </c>
@@ -4716,7 +4968,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>171</v>
       </c>
@@ -4727,7 +4979,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>171</v>
       </c>
@@ -4738,7 +4990,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>174</v>
       </c>
@@ -4749,7 +5001,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>174</v>
       </c>
@@ -4760,7 +5012,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>175</v>
       </c>
@@ -4771,7 +5023,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>175</v>
       </c>
@@ -4782,7 +5034,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>176</v>
       </c>
@@ -4793,7 +5045,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>176</v>
       </c>
@@ -4804,7 +5056,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>176</v>
       </c>
@@ -4815,7 +5067,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>176</v>
       </c>
@@ -4826,7 +5078,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>176</v>
       </c>
@@ -4837,7 +5089,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>176</v>
       </c>
@@ -4848,7 +5100,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>176</v>
       </c>
@@ -4859,7 +5111,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>176</v>
       </c>
@@ -4870,7 +5122,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>176</v>
       </c>
@@ -4881,7 +5133,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>176</v>
       </c>
@@ -4892,7 +5144,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>176</v>
       </c>
@@ -4903,7 +5155,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>176</v>
       </c>
@@ -4914,7 +5166,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>176</v>
       </c>
@@ -4925,7 +5177,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>176</v>
       </c>
@@ -4936,7 +5188,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>176</v>
       </c>
@@ -4947,7 +5199,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>176</v>
       </c>
@@ -4958,7 +5210,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>176</v>
       </c>
@@ -4969,7 +5221,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>180</v>
       </c>
@@ -4980,7 +5232,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>180</v>
       </c>
@@ -4991,7 +5243,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>180</v>
       </c>
@@ -5002,7 +5254,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>180</v>
       </c>
@@ -5013,7 +5265,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>180</v>
       </c>
@@ -5024,7 +5276,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>180</v>
       </c>
@@ -5035,7 +5287,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>180</v>
       </c>
@@ -5046,7 +5298,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>180</v>
       </c>
@@ -5057,7 +5309,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>180</v>
       </c>
@@ -5068,7 +5320,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>180</v>
       </c>
@@ -5079,7 +5331,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>180</v>
       </c>
@@ -5090,7 +5342,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>180</v>
       </c>
@@ -5101,7 +5353,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>180</v>
       </c>
@@ -5112,7 +5364,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>180</v>
       </c>
@@ -5123,7 +5375,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>180</v>
       </c>
@@ -5134,7 +5386,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>180</v>
       </c>
@@ -5145,7 +5397,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>180</v>
       </c>
@@ -5156,7 +5408,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>183</v>
       </c>
@@ -5167,7 +5419,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>183</v>
       </c>
@@ -5178,7 +5430,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>183</v>
       </c>
@@ -5200,16 +5452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>198</v>
       </c>
